--- a/Data Prep/tweets_cleaned.xlsx
+++ b/Data Prep/tweets_cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36AF415-DB31-467B-8BCF-45EFB520C3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECB6203-C306-4267-8F8A-E1155C555D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{076154BD-63EA-4C6B-BE29-0FF13C5412EB}"/>
   </bookViews>
@@ -524,7 +524,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C7" sqref="C7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -640,7 +640,7 @@
         <v>45</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>106</v>
@@ -660,10 +660,10 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="F7">
         <v>16</v>
@@ -680,13 +680,13 @@
         <v>303</v>
       </c>
       <c r="D8">
-        <v>963</v>
+        <v>977</v>
       </c>
       <c r="E8">
-        <v>2733</v>
+        <v>2770</v>
       </c>
       <c r="F8">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -703,7 +703,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>129</v>
       </c>
       <c r="D13">
-        <v>940</v>
+        <v>992</v>
       </c>
       <c r="E13">
-        <v>10648</v>
+        <v>11436</v>
       </c>
       <c r="F13">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -820,13 +820,13 @@
         <v>67</v>
       </c>
       <c r="D15">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E15">
-        <v>2646</v>
+        <v>2637</v>
       </c>
       <c r="F15">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
